--- a/スマートウォッチ比較リスト.xlsx
+++ b/スマートウォッチ比較リスト.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>機種名</t>
     <rPh sb="0" eb="3">
@@ -49,61 +49,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ジャイロセンサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>心拍数</t>
-    <rPh sb="0" eb="3">
-      <t>シンパクスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャイロセンサ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>静電気容量センサ</t>
-    <rPh sb="0" eb="3">
-      <t>セイデンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輝度センサ</t>
-    <rPh sb="0" eb="1">
-      <t>カガヤ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値段</t>
-    <rPh sb="0" eb="2">
-      <t>ネダン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -139,25 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSがAndroidではないため対象外</t>
-    <rPh sb="16" eb="19">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>脈拍</t>
   </si>
   <si>
@@ -188,14 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HUAWEI-WATCH2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -205,13 +132,349 @@
   </si>
   <si>
     <t>http://www.lg.com/jp/mobile-accessories/lg-W150</t>
+  </si>
+  <si>
+    <t>搭載機能</t>
+    <rPh sb="0" eb="2">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心拍センサ</t>
+    <rPh sb="0" eb="2">
+      <t>シンパク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moto 360</t>
+  </si>
+  <si>
+    <t>メーカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HUAWEI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境光センサ</t>
+  </si>
+  <si>
+    <t>バイブレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Samsung</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Polar M600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Polar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格は2017/9/5時点でAMAZON JP で表示されているものを記載</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.polar.com/ja/products/sport/M600-GPS-smartwatch</t>
+  </si>
+  <si>
+    <t>候補機種一覧</t>
+    <rPh sb="0" eb="2">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LG Watch Urbane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補機種の選定条件として脈拍数(心拍数)センサを搭載していることを設定した</t>
+    <rPh sb="0" eb="2">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミャクハク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンパク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※OSがAndroidではないため対象外</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静電容量センサ</t>
+    <rPh sb="0" eb="2">
+      <t>セイデン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静電容量センサ</t>
+    <rPh sb="0" eb="2">
+      <t>セイデン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持者が対象に近づくと、反応する近接センサや触れることで反応するタッチセンサに応用可能</t>
+    <rPh sb="0" eb="3">
+      <t>ショジシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>オウヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境光センサ</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周りの明かりを検知して、デバイスの画面の明るさを調整することができる</t>
+    <rPh sb="0" eb="1">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気圧センサ</t>
+  </si>
+  <si>
+    <t>気圧を検知、取得することができる</t>
+    <rPh sb="0" eb="2">
+      <t>キアツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moto 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moto 360　sport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.motorola.co.jp/products/moto-360-sport</t>
+  </si>
+  <si>
+    <t>振動/触覚エンジン</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振動/触覚エンジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知やアラートに合わせて、スマートウォッチに振動を加えることができる</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シンドウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※国内で販売されておらず、大量に購入する場合輸入が必要</t>
+    <rPh sb="1" eb="3">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユニュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振動を検知、取得することができる。通知やアラートに合わせて、スマートウォッチに振動を加えることができる</t>
+    <rPh sb="0" eb="2">
+      <t>シンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各デバイス特有のセンサにより、将来実現可能と推定される機能</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクユウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,16 +502,30 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -256,14 +533,199 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -324,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +818,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +852,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,234 +1027,470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
-    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="14.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37.584000000000003</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1">
+        <v>48443</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5">
+        <v>29480</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5">
+        <v>39729</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="J15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="24"/>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="C22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C3">
-        <v>37.584000000000003</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D24" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="24"/>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
